--- a/AAII_Financials/Quarterly/PRE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PRE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="92">
   <si>
     <t>PRE</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,141 +665,155 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
+      <c r="J7" s="2">
+        <v>44196</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>3</v>
+      <c r="D8" s="3">
+        <v>51700</v>
       </c>
       <c r="E8" s="3">
-        <v>0</v>
+        <v>92000</v>
       </c>
       <c r="F8" s="3">
-        <v>0</v>
+        <v>64700</v>
       </c>
       <c r="G8" s="3">
-        <v>0</v>
+        <v>74700</v>
       </c>
       <c r="H8" s="3">
-        <v>0</v>
+        <v>79000</v>
       </c>
       <c r="I8" s="3">
-        <v>0</v>
+        <v>57500</v>
       </c>
       <c r="J8" s="3">
-        <v>0</v>
+        <v>27300</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
+      <c r="D9" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>56000</v>
+      </c>
+      <c r="F9" s="3">
+        <v>41000</v>
+      </c>
+      <c r="G9" s="3">
+        <v>48900</v>
+      </c>
+      <c r="H9" s="3">
+        <v>44300</v>
+      </c>
+      <c r="I9" s="3">
+        <v>35500</v>
+      </c>
+      <c r="J9" s="3">
+        <v>18800</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
+      <c r="D10" s="3">
+        <v>21700</v>
+      </c>
+      <c r="E10" s="3">
+        <v>36000</v>
+      </c>
+      <c r="F10" s="3">
+        <v>23700</v>
+      </c>
+      <c r="G10" s="3">
+        <v>25800</v>
+      </c>
+      <c r="H10" s="3">
+        <v>34700</v>
+      </c>
+      <c r="I10" s="3">
+        <v>22000</v>
+      </c>
+      <c r="J10" s="3">
+        <v>8500</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -811,37 +825,41 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>3</v>
+      <c r="D12" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E12" s="3">
+        <v>3800</v>
+      </c>
+      <c r="F12" s="3">
+        <v>5500</v>
+      </c>
+      <c r="G12" s="3">
+        <v>2200</v>
+      </c>
+      <c r="H12" s="3">
+        <v>1600</v>
+      </c>
+      <c r="I12" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J12" s="3">
+        <v>1100</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -869,28 +887,31 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>89500</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
+        <v>-100</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
@@ -898,8 +919,11 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -927,8 +951,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -937,66 +964,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1300</v>
+        <v>159200</v>
       </c>
       <c r="E17" s="3">
-        <v>1700</v>
+        <v>92600</v>
       </c>
       <c r="F17" s="3">
-        <v>1700</v>
+        <v>95800</v>
       </c>
       <c r="G17" s="3">
-        <v>500</v>
+        <v>79900</v>
       </c>
       <c r="H17" s="3">
-        <v>0</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
+        <v>64200</v>
+      </c>
+      <c r="I17" s="3">
+        <v>46400</v>
+      </c>
+      <c r="J17" s="3">
+        <v>30300</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>3</v>
+      <c r="D18" s="3">
+        <v>-107500</v>
       </c>
       <c r="E18" s="3">
-        <v>-1700</v>
+        <v>-600</v>
       </c>
       <c r="F18" s="3">
-        <v>-1700</v>
+        <v>-31100</v>
       </c>
       <c r="G18" s="3">
-        <v>-500</v>
+        <v>-5200</v>
       </c>
       <c r="H18" s="3">
-        <v>0</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
+        <v>14800</v>
+      </c>
+      <c r="I18" s="3">
+        <v>11100</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-3000</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1008,37 +1042,41 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
+      <c r="D20" s="3">
+        <v>-36400</v>
       </c>
       <c r="E20" s="3">
-        <v>8100</v>
+        <v>-30700</v>
       </c>
       <c r="F20" s="3">
-        <v>-2400</v>
+        <v>-56100</v>
       </c>
       <c r="G20" s="3">
-        <v>-5000</v>
+        <v>-74400</v>
       </c>
       <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
+        <v>-22200</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-2900</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1066,8 +1104,11 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1095,57 +1136,63 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>7200</v>
+        <v>-143900</v>
       </c>
       <c r="E23" s="3">
-        <v>6300</v>
+        <v>-31300</v>
       </c>
       <c r="F23" s="3">
-        <v>-4100</v>
+        <v>-87100</v>
       </c>
       <c r="G23" s="3">
-        <v>-5500</v>
+        <v>-79600</v>
       </c>
       <c r="H23" s="3">
-        <v>0</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
+        <v>-7400</v>
+      </c>
+      <c r="I23" s="3">
+        <v>3800</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-5900</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="F24" s="3">
-        <v>0</v>
+        <v>-1400</v>
       </c>
       <c r="G24" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="H24" s="3">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="I24" s="3">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="J24" s="3">
         <v>0</v>
@@ -1153,8 +1200,11 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1182,66 +1232,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>7200</v>
+        <v>-144200</v>
       </c>
       <c r="E26" s="3">
-        <v>6300</v>
+        <v>-33000</v>
       </c>
       <c r="F26" s="3">
-        <v>-4100</v>
+        <v>-85700</v>
       </c>
       <c r="G26" s="3">
-        <v>-5500</v>
+        <v>-80400</v>
       </c>
       <c r="H26" s="3">
-        <v>0</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
+        <v>-9800</v>
+      </c>
+      <c r="I26" s="3">
+        <v>1900</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-5900</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>7200</v>
+        <v>-144200</v>
       </c>
       <c r="E27" s="3">
-        <v>6300</v>
+        <v>-33000</v>
       </c>
       <c r="F27" s="3">
-        <v>-4100</v>
+        <v>-85700</v>
       </c>
       <c r="G27" s="3">
-        <v>-5500</v>
+        <v>-80400</v>
       </c>
       <c r="H27" s="3">
-        <v>0</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
+        <v>-9800</v>
+      </c>
+      <c r="I27" s="3">
+        <v>1900</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-5900</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1269,8 +1328,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1298,8 +1360,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1327,8 +1392,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1356,66 +1424,75 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>3</v>
+      <c r="D32" s="3">
+        <v>36400</v>
       </c>
       <c r="E32" s="3">
-        <v>-8100</v>
+        <v>30700</v>
       </c>
       <c r="F32" s="3">
-        <v>2400</v>
+        <v>56100</v>
       </c>
       <c r="G32" s="3">
-        <v>5000</v>
+        <v>74400</v>
       </c>
       <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
+        <v>22200</v>
+      </c>
+      <c r="I32" s="3">
+        <v>7300</v>
+      </c>
+      <c r="J32" s="3">
+        <v>2900</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>7200</v>
+        <v>-144200</v>
       </c>
       <c r="E33" s="3">
-        <v>6300</v>
+        <v>-33000</v>
       </c>
       <c r="F33" s="3">
-        <v>-4100</v>
+        <v>-85700</v>
       </c>
       <c r="G33" s="3">
-        <v>-5500</v>
+        <v>-80400</v>
       </c>
       <c r="H33" s="3">
-        <v>0</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
+        <v>-9800</v>
+      </c>
+      <c r="I33" s="3">
+        <v>1900</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-5900</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1443,71 +1520,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>7200</v>
+        <v>-144200</v>
       </c>
       <c r="E35" s="3">
-        <v>6300</v>
+        <v>-33000</v>
       </c>
       <c r="F35" s="3">
-        <v>-4100</v>
+        <v>-85700</v>
       </c>
       <c r="G35" s="3">
-        <v>-5500</v>
+        <v>-80400</v>
       </c>
       <c r="H35" s="3">
-        <v>0</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
+        <v>-9800</v>
+      </c>
+      <c r="I35" s="3">
+        <v>1900</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-5900</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
+      <c r="J38" s="2">
+        <v>44196</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1519,8 +1605,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1532,28 +1619,29 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>134400</v>
       </c>
       <c r="E41" s="3">
-        <v>100</v>
+        <v>34200</v>
       </c>
       <c r="F41" s="3">
-        <v>200</v>
+        <v>35300</v>
       </c>
       <c r="G41" s="3">
-        <v>500</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
+        <v>41800</v>
+      </c>
+      <c r="H41" s="3">
+        <v>37600</v>
+      </c>
+      <c r="I41" s="3">
+        <v>9400</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1561,115 +1649,127 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
+        <v>26700</v>
       </c>
       <c r="E42" s="3">
-        <v>0</v>
+        <v>9900</v>
       </c>
       <c r="F42" s="3">
-        <v>0</v>
+        <v>9900</v>
       </c>
       <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
+        <v>10000</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>42600</v>
       </c>
       <c r="E43" s="3">
-        <v>0</v>
+        <v>59700</v>
       </c>
       <c r="F43" s="3">
-        <v>0</v>
+        <v>47500</v>
       </c>
       <c r="G43" s="3">
-        <v>0</v>
+        <v>52200</v>
       </c>
       <c r="H43" s="3">
-        <v>0</v>
+        <v>62500</v>
       </c>
       <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
+        <v>48200</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>0</v>
+        <v>11300</v>
       </c>
       <c r="E44" s="3">
-        <v>0</v>
+        <v>15700</v>
       </c>
       <c r="F44" s="3">
-        <v>0</v>
+        <v>6800</v>
       </c>
       <c r="G44" s="3">
-        <v>0</v>
+        <v>5100</v>
       </c>
       <c r="H44" s="3">
-        <v>0</v>
+        <v>4100</v>
       </c>
       <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3">
-        <v>0</v>
+        <v>5700</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>600</v>
+        <v>16100</v>
       </c>
       <c r="E45" s="3">
-        <v>500</v>
+        <v>7700</v>
       </c>
       <c r="F45" s="3">
-        <v>500</v>
+        <v>7400</v>
       </c>
       <c r="G45" s="3">
-        <v>500</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
+        <v>10000</v>
+      </c>
+      <c r="H45" s="3">
+        <v>5600</v>
+      </c>
+      <c r="I45" s="3">
+        <v>2400</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
@@ -1677,28 +1777,31 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>600</v>
+        <v>231200</v>
       </c>
       <c r="E46" s="3">
-        <v>600</v>
+        <v>127300</v>
       </c>
       <c r="F46" s="3">
-        <v>700</v>
+        <v>106900</v>
       </c>
       <c r="G46" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
+        <v>119000</v>
+      </c>
+      <c r="H46" s="3">
+        <v>109800</v>
+      </c>
+      <c r="I46" s="3">
+        <v>65700</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -1706,95 +1809,107 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>339400</v>
+        <v>0</v>
       </c>
       <c r="E47" s="3">
-        <v>339400</v>
+        <v>0</v>
       </c>
       <c r="F47" s="3">
-        <v>339400</v>
+        <v>0</v>
       </c>
       <c r="G47" s="3">
-        <v>339300</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3">
+        <v>0</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
+        <v>12900</v>
       </c>
       <c r="E48" s="3">
-        <v>0</v>
+        <v>13900</v>
       </c>
       <c r="F48" s="3">
-        <v>0</v>
+        <v>13000</v>
       </c>
       <c r="G48" s="3">
-        <v>0</v>
+        <v>13400</v>
       </c>
       <c r="H48" s="3">
-        <v>0</v>
+        <v>9300</v>
       </c>
       <c r="I48" s="3">
-        <v>0</v>
-      </c>
-      <c r="J48" s="3">
-        <v>0</v>
+        <v>5900</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
+        <v>25200</v>
       </c>
       <c r="E49" s="3">
-        <v>0</v>
+        <v>27700</v>
       </c>
       <c r="F49" s="3">
-        <v>0</v>
+        <v>27800</v>
       </c>
       <c r="G49" s="3">
-        <v>0</v>
+        <v>29000</v>
       </c>
       <c r="H49" s="3">
-        <v>0</v>
+        <v>29600</v>
       </c>
       <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
+        <v>28800</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1822,8 +1937,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1851,28 +1969,31 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>400</v>
+        <v>9000</v>
       </c>
       <c r="E52" s="3">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="F52" s="3">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="G52" s="3">
-        <v>1100</v>
+        <v>600</v>
       </c>
       <c r="H52" s="3">
         <v>300</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
+      <c r="I52" s="3">
+        <v>500</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
@@ -1880,8 +2001,11 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1909,28 +2033,31 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>340300</v>
+        <v>278200</v>
       </c>
       <c r="E54" s="3">
-        <v>340200</v>
+        <v>169600</v>
       </c>
       <c r="F54" s="3">
-        <v>340400</v>
+        <v>148500</v>
       </c>
       <c r="G54" s="3">
-        <v>341300</v>
+        <v>161900</v>
       </c>
       <c r="H54" s="3">
-        <v>300</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
+        <v>149000</v>
+      </c>
+      <c r="I54" s="3">
+        <v>100900</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -1938,8 +2065,11 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1951,8 +2081,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1964,28 +2095,29 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>500</v>
+        <v>8600</v>
       </c>
       <c r="E57" s="3">
-        <v>300</v>
+        <v>14200</v>
       </c>
       <c r="F57" s="3">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="G57" s="3">
-        <v>0</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
+        <v>21700</v>
+      </c>
+      <c r="H57" s="3">
+        <v>21500</v>
+      </c>
+      <c r="I57" s="3">
+        <v>19700</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
@@ -1993,57 +2125,63 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>11100</v>
       </c>
       <c r="E58" s="3">
-        <v>0</v>
+        <v>13600</v>
       </c>
       <c r="F58" s="3">
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="G58" s="3">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="H58" s="3">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
+        <v>28500</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3900</v>
+        <v>27600</v>
       </c>
       <c r="E59" s="3">
-        <v>3000</v>
+        <v>45700</v>
       </c>
       <c r="F59" s="3">
-        <v>1800</v>
+        <v>47100</v>
       </c>
       <c r="G59" s="3">
-        <v>500</v>
+        <v>29500</v>
       </c>
       <c r="H59" s="3">
-        <v>300</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
+        <v>21700</v>
+      </c>
+      <c r="I59" s="3">
+        <v>19000</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2051,28 +2189,31 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4400</v>
+        <v>47300</v>
       </c>
       <c r="E60" s="3">
-        <v>3300</v>
+        <v>73500</v>
       </c>
       <c r="F60" s="3">
-        <v>1800</v>
+        <v>58700</v>
       </c>
       <c r="G60" s="3">
-        <v>500</v>
+        <v>52800</v>
       </c>
       <c r="H60" s="3">
-        <v>300</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
+        <v>44400</v>
+      </c>
+      <c r="I60" s="3">
+        <v>67100</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2080,28 +2221,31 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>3100</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>520300</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>490000</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>434300</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>358100</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -2109,25 +2253,28 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>16500</v>
+        <v>8900</v>
       </c>
       <c r="E62" s="3">
-        <v>24600</v>
+        <v>700</v>
       </c>
       <c r="F62" s="3">
-        <v>32700</v>
+        <v>700</v>
       </c>
       <c r="G62" s="3">
-        <v>30800</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
+        <v>800</v>
+      </c>
+      <c r="H62" s="3">
+        <v>500</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
@@ -2138,8 +2285,11 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2167,8 +2317,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2196,8 +2349,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2225,28 +2381,31 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>20900</v>
+        <v>59200</v>
       </c>
       <c r="E66" s="3">
-        <v>27900</v>
+        <v>594500</v>
       </c>
       <c r="F66" s="3">
-        <v>34500</v>
+        <v>549300</v>
       </c>
       <c r="G66" s="3">
-        <v>31300</v>
+        <v>487800</v>
       </c>
       <c r="H66" s="3">
-        <v>300</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
+        <v>403000</v>
+      </c>
+      <c r="I66" s="3">
+        <v>67600</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2254,8 +2413,11 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2267,8 +2429,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2296,8 +2459,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2325,8 +2491,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2354,8 +2523,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2383,28 +2555,31 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-19900</v>
+        <v>219100</v>
       </c>
       <c r="E72" s="3">
-        <v>-27100</v>
+        <v>-425000</v>
       </c>
       <c r="F72" s="3">
-        <v>-33400</v>
+        <v>-400800</v>
       </c>
       <c r="G72" s="3">
-        <v>-29300</v>
+        <v>-341200</v>
       </c>
       <c r="H72" s="3">
-        <v>0</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
+        <v>-269400</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-20000</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -2412,8 +2587,11 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2441,8 +2619,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2470,8 +2651,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2499,28 +2683,31 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>319500</v>
+        <v>219100</v>
       </c>
       <c r="E76" s="3">
-        <v>312300</v>
+        <v>-424900</v>
       </c>
       <c r="F76" s="3">
-        <v>305900</v>
+        <v>-400800</v>
       </c>
       <c r="G76" s="3">
-        <v>310000</v>
+        <v>-325900</v>
       </c>
       <c r="H76" s="3">
-        <v>0</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
+        <v>-254000</v>
+      </c>
+      <c r="I76" s="3">
+        <v>33200</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -2528,8 +2715,11 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2557,71 +2747,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
+      <c r="J80" s="2">
+        <v>44196</v>
       </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>7200</v>
+        <v>-144200</v>
       </c>
       <c r="E81" s="3">
-        <v>6300</v>
+        <v>-33000</v>
       </c>
       <c r="F81" s="3">
-        <v>-4100</v>
+        <v>-85700</v>
       </c>
       <c r="G81" s="3">
-        <v>-5500</v>
+        <v>-80400</v>
       </c>
       <c r="H81" s="3">
-        <v>0</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
+        <v>-9800</v>
+      </c>
+      <c r="I81" s="3">
+        <v>1900</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-5900</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2633,8 +2832,9 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2662,8 +2862,11 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2691,8 +2894,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2720,8 +2926,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2749,8 +2958,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2778,8 +2990,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2807,37 +3022,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="E89" s="3">
-        <v>-100</v>
+      <c r="D89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F89" s="3">
-        <v>-100</v>
+        <v>-4000</v>
       </c>
       <c r="G89" s="3">
-        <v>-1200</v>
+        <v>17400</v>
       </c>
       <c r="H89" s="3">
-        <v>0</v>
+        <v>6200</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
+      <c r="J89" s="3">
+        <v>-2900</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2849,37 +3070,41 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
-      </c>
-      <c r="E91" s="3">
-        <v>0</v>
+      <c r="D91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F91" s="3">
-        <v>0</v>
+        <v>-1400</v>
       </c>
       <c r="G91" s="3">
-        <v>0</v>
+        <v>-7100</v>
       </c>
       <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
+        <v>-2400</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J91" s="3">
-        <v>0</v>
+        <v>-2900</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2907,8 +3132,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2936,37 +3164,43 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>0</v>
-      </c>
-      <c r="E94" s="3">
-        <v>0</v>
+      <c r="D94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F94" s="3">
-        <v>0</v>
+        <v>-2200</v>
       </c>
       <c r="G94" s="3">
-        <v>0</v>
+        <v>-19900</v>
       </c>
       <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
+        <v>-3000</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J94" s="3">
-        <v>0</v>
+        <v>-6000</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2978,8 +3212,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3007,8 +3242,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3036,8 +3274,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3065,8 +3306,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3094,57 +3338,63 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>0</v>
-      </c>
-      <c r="E100" s="3">
-        <v>0</v>
+      <c r="D100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F100" s="3">
-        <v>-200</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
+        <v>-600</v>
+      </c>
+      <c r="G100" s="3">
+        <v>29900</v>
+      </c>
+      <c r="H100" s="3">
+        <v>25700</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
+      <c r="J100" s="3">
+        <v>11800</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>0</v>
-      </c>
-      <c r="E101" s="3">
-        <v>0</v>
+      <c r="D101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F101" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G101" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
+        <v>-800</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J101" s="3">
         <v>0</v>
@@ -3152,33 +3402,39 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>-100</v>
-      </c>
-      <c r="E102" s="3">
-        <v>-100</v>
+      <c r="D102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F102" s="3">
-        <v>-200</v>
+        <v>-6500</v>
       </c>
       <c r="G102" s="3">
-        <v>500</v>
+        <v>27300</v>
       </c>
       <c r="H102" s="3">
-        <v>0</v>
+        <v>28200</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
+      <c r="J102" s="3">
+        <v>3000</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PRE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PRE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="92">
   <si>
     <t>PRE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,155 +665,168 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>79700</v>
+      </c>
+      <c r="E8" s="3">
         <v>51700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>92000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>64700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>74700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>79000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>57500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>27300</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
       <c r="L8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>32900</v>
+      </c>
+      <c r="E9" s="3">
         <v>30000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>56000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>41000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>48900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>44300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>35500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>18800</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>46800</v>
+      </c>
+      <c r="E10" s="3">
         <v>21700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>36000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>23700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>25800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>34700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>22000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>8500</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -826,40 +839,44 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E12" s="3">
         <v>4800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>3800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>5500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>2200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1100</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,31 +907,34 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>24100</v>
+      </c>
+      <c r="E14" s="3">
         <v>89500</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>300</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-100</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -922,8 +942,11 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -954,8 +977,11 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -965,72 +991,79 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>85600</v>
+      </c>
+      <c r="E17" s="3">
         <v>159200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>92600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>95800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>79900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>64200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>46400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>30300</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="E18" s="3">
         <v>-107500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-31100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-5200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>14800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>11100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-3000</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1043,40 +1076,44 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E20" s="3">
         <v>-36400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-30700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-56100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-74400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-22200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-7300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-2900</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1107,8 +1144,11 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1139,72 +1179,81 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-143900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-31300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-87100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-79600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-7400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>3800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-5900</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E24" s="3">
         <v>300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-1400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>2400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1800</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1235,72 +1284,81 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-14900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-144200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-33000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-85700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-80400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-9800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-5900</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-14900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-144200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-33000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-85700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-80400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-9800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-5900</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1331,8 +1389,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1363,8 +1424,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1395,8 +1459,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1427,72 +1494,81 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E32" s="3">
         <v>36400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>30700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>56100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>74400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>22200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>7300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>2900</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-14900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-144200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-33000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-85700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-80400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-9800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-5900</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1523,77 +1599,86 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-14900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-144200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-33000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-85700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-80400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-9800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-5900</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1606,8 +1691,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1620,200 +1706,219 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>144700</v>
+      </c>
+      <c r="E41" s="3">
         <v>134400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>34200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>35300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>41800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>37600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>9400</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>25200</v>
+      </c>
+      <c r="E42" s="3">
         <v>26700</v>
-      </c>
-      <c r="E42" s="3">
-        <v>9900</v>
       </c>
       <c r="F42" s="3">
         <v>9900</v>
       </c>
       <c r="G42" s="3">
+        <v>9900</v>
+      </c>
+      <c r="H42" s="3">
         <v>10000</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>61100</v>
+      </c>
+      <c r="E43" s="3">
         <v>42600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>59700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>47500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>52200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>62500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>48200</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K43" s="3">
-        <v>0</v>
+      <c r="K43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E44" s="3">
         <v>11300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>15700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>6800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>5100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>4100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>5700</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K44" s="3">
-        <v>0</v>
+      <c r="K44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E45" s="3">
         <v>16100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>7700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>7400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>10000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>5600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2400</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>250100</v>
+      </c>
+      <c r="E46" s="3">
         <v>231200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>127300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>106900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>119000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>109800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>65700</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1838,78 +1943,87 @@
       <c r="J47" s="3">
         <v>0</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
+      <c r="K47" s="3">
+        <v>0</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E48" s="3">
         <v>12900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>13900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>13000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>13400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>9300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>5900</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K48" s="3">
-        <v>0</v>
+      <c r="K48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>800</v>
+      </c>
+      <c r="E49" s="3">
         <v>25200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>27700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>27800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>29000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>29600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>28800</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K49" s="3">
-        <v>0</v>
+      <c r="K49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1940,8 +2054,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1972,40 +2089,46 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E52" s="3">
         <v>9000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>500</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2036,40 +2159,46 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>269600</v>
+      </c>
+      <c r="E54" s="3">
         <v>278200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>169600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>148500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>161900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>149000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>100900</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2082,8 +2211,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2096,189 +2226,205 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E57" s="3">
         <v>8600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>14200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>10000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>21700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>21500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>19700</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>11600</v>
+      </c>
+      <c r="E58" s="3">
         <v>11100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>13600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>28500</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>28900</v>
+      </c>
+      <c r="E59" s="3">
         <v>27600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>45700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>47100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>29500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>21700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>19000</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>49500</v>
+      </c>
+      <c r="E60" s="3">
         <v>47300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>73500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>58700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>52800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>44400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>67100</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E61" s="3">
         <v>3100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>520300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>490000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>434300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>358100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>600</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E62" s="3">
         <v>8900</v>
-      </c>
-      <c r="E62" s="3">
-        <v>700</v>
       </c>
       <c r="F62" s="3">
         <v>700</v>
       </c>
       <c r="G62" s="3">
+        <v>700</v>
+      </c>
+      <c r="H62" s="3">
         <v>800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>500</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2288,8 +2434,11 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2320,8 +2469,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2352,8 +2504,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2384,40 +2539,46 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>62200</v>
+      </c>
+      <c r="E66" s="3">
         <v>59200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>594500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>549300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>487800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>403000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>67600</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2430,8 +2591,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2462,8 +2624,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2494,8 +2659,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2526,8 +2694,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2558,40 +2729,46 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>207300</v>
+      </c>
+      <c r="E72" s="3">
         <v>219100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-425000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-400800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-341200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-269400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-20000</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2622,8 +2799,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2654,8 +2834,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2686,40 +2869,46 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>207400</v>
+      </c>
+      <c r="E76" s="3">
         <v>219100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-424900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-400800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-325900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-254000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>33200</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2750,77 +2939,86 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-14900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-144200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-33000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-85700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-80400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-9800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-5900</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2833,8 +3031,9 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2865,8 +3064,11 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2897,8 +3099,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2929,8 +3134,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2961,8 +3169,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2993,8 +3204,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3025,8 +3239,11 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3036,29 +3253,32 @@
       <c r="E89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F89" s="3">
-        <v>-4000</v>
+      <c r="F89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G89" s="3">
-        <v>17400</v>
-      </c>
-      <c r="H89" s="3">
-        <v>6200</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
+        <v>13400</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-900</v>
       </c>
       <c r="J89" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="K89" s="3">
         <v>-2900</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3071,8 +3291,9 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3082,29 +3303,32 @@
       <c r="E91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F91" s="3">
-        <v>-1400</v>
+      <c r="F91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G91" s="3">
-        <v>-7100</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-2400</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
+        <v>-8500</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-4200</v>
       </c>
       <c r="J91" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-2900</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3135,8 +3359,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3167,8 +3394,11 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3178,29 +3408,32 @@
       <c r="E94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F94" s="3">
-        <v>-2200</v>
+      <c r="F94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G94" s="3">
-        <v>-19900</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-3000</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
+        <v>-22000</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-5700</v>
       </c>
       <c r="J94" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-6000</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3213,8 +3446,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3245,8 +3479,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3277,8 +3514,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3309,8 +3549,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3341,8 +3584,11 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3352,29 +3598,32 @@
       <c r="E100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F100" s="3">
-        <v>-600</v>
+      <c r="F100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G100" s="3">
-        <v>29900</v>
-      </c>
-      <c r="H100" s="3">
-        <v>25700</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
+        <v>29300</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I100" s="3">
+        <v>30400</v>
       </c>
       <c r="J100" s="3">
+        <v>4700</v>
+      </c>
+      <c r="K100" s="3">
         <v>11800</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3384,17 +3633,17 @@
       <c r="E101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F101" s="3">
-        <v>300</v>
+      <c r="F101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G101" s="3">
-        <v>-200</v>
-      </c>
-      <c r="H101" s="3">
-        <v>-800</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I101" s="3">
+        <v>-700</v>
       </c>
       <c r="J101" s="3">
         <v>0</v>
@@ -3405,8 +3654,11 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3416,25 +3668,28 @@
       <c r="E102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F102" s="3">
-        <v>-6500</v>
+      <c r="F102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G102" s="3">
-        <v>27300</v>
-      </c>
-      <c r="H102" s="3">
-        <v>28200</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
+        <v>20800</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I102" s="3">
+        <v>23100</v>
       </c>
       <c r="J102" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="K102" s="3">
         <v>3000</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PRE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PRE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="92">
   <si>
     <t>PRE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,168 +665,180 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>52300</v>
+      </c>
+      <c r="E8" s="3">
         <v>79700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>51700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>92000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>64700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>74700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>79000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>57500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>27300</v>
       </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
       <c r="M8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>25300</v>
+      </c>
+      <c r="E9" s="3">
         <v>32900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>30000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>56000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>41000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>48900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>44300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>35500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>18800</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>27000</v>
+      </c>
+      <c r="E10" s="3">
         <v>46800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>21700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>36000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>23700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>25800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>34700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>22000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>8500</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -840,43 +852,47 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E12" s="3">
         <v>3200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>4800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>3800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>5500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>2200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1100</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,34 +926,37 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>30400</v>
+      </c>
+      <c r="E14" s="3">
         <v>24100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>89500</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>300</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-100</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -945,8 +964,11 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -980,8 +1002,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -992,78 +1017,85 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>47700</v>
+      </c>
+      <c r="E17" s="3">
         <v>85600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>159200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>92600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>95800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>79900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>64200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>46400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>30300</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-5900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-107500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-31100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-5200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>14800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>11100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-3000</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1077,43 +1109,47 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E20" s="3">
         <v>-5500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-36400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-30700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-56100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-74400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-22200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-7300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-2900</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1147,8 +1183,11 @@
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1182,78 +1221,87 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-11400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-143900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-31300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-87100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-79600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-7400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>3800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-5900</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E24" s="3">
         <v>3500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-1400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>2400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1800</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
       <c r="M24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1287,78 +1335,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-14900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-144200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-33000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-85700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-80400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-9800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-5900</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-14900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-144200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-33000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-85700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-80400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-9800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-5900</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1392,8 +1449,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1427,8 +1487,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1462,8 +1525,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1497,78 +1563,87 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E32" s="3">
         <v>5500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>36400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>30700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>56100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>74400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>22200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>7300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>2900</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-14900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-144200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-33000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-85700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-80400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-9800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-5900</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1602,83 +1677,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-14900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-144200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-33000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-85700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-80400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-9800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-5900</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1692,8 +1776,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1707,235 +1792,254 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>146700</v>
+      </c>
+      <c r="E41" s="3">
         <v>144700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>134400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>34200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>35300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>41800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>37600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>9400</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>17500</v>
+      </c>
+      <c r="E42" s="3">
         <v>25200</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>26700</v>
-      </c>
-      <c r="F42" s="3">
-        <v>9900</v>
       </c>
       <c r="G42" s="3">
         <v>9900</v>
       </c>
       <c r="H42" s="3">
+        <v>9900</v>
+      </c>
+      <c r="I42" s="3">
         <v>10000</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L42" s="3">
-        <v>0</v>
+      <c r="L42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>61600</v>
+      </c>
+      <c r="E43" s="3">
         <v>61100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>42600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>59700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>47500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>52200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>62500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>48200</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L43" s="3">
-        <v>0</v>
+      <c r="L43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E44" s="3">
         <v>8200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>11300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>15700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>6800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>5100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>4100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>5700</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L44" s="3">
-        <v>0</v>
+      <c r="L44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E45" s="3">
         <v>10900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>16100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>7700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>7400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>10000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>5600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2400</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>241800</v>
+      </c>
+      <c r="E46" s="3">
         <v>250100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>231200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>127300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>106900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>119000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>109800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>65700</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
-      </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
+        <v>800</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I47" s="3">
         <v>0</v>
@@ -1946,84 +2050,93 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>3</v>
+      <c r="L47" s="3">
+        <v>0</v>
       </c>
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>13100</v>
+      </c>
+      <c r="E48" s="3">
         <v>11000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>12900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>13900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>13000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>13400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>9300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>5900</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L48" s="3">
-        <v>0</v>
+      <c r="L48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>48600</v>
+      </c>
+      <c r="E49" s="3">
         <v>800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>25200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>27700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>27800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>29000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>29600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>28800</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L49" s="3">
-        <v>0</v>
+      <c r="L49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2057,8 +2170,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2092,43 +2208,49 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E52" s="3">
         <v>7700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>9000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>500</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2162,43 +2284,49 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>312100</v>
+      </c>
+      <c r="E54" s="3">
         <v>269600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>278200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>169600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>148500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>161900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>149000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>100900</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2212,8 +2340,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2227,207 +2356,223 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E57" s="3">
         <v>9100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>8600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>14200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>10000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>21700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>21500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>19700</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E58" s="3">
         <v>11600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>11100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>13600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>28500</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L58" s="3">
-        <v>0</v>
+      <c r="L58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>47000</v>
+      </c>
+      <c r="E59" s="3">
         <v>28900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>27600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>45700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>47100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>29500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>21700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>19000</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>57200</v>
+      </c>
+      <c r="E60" s="3">
         <v>49500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>47300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>73500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>58700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>52800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>44400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>67100</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E61" s="3">
         <v>2500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>520300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>490000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>434300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>358100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>600</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E62" s="3">
         <v>10300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>8900</v>
-      </c>
-      <c r="F62" s="3">
-        <v>700</v>
       </c>
       <c r="G62" s="3">
         <v>700</v>
       </c>
       <c r="H62" s="3">
+        <v>700</v>
+      </c>
+      <c r="I62" s="3">
         <v>800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>500</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2437,8 +2582,11 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2472,8 +2620,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2507,8 +2658,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2542,43 +2696,49 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>75100</v>
+      </c>
+      <c r="E66" s="3">
         <v>62200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>59200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>594500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>549300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>487800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>403000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>67600</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2592,8 +2752,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2627,8 +2788,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2662,8 +2826,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2697,8 +2864,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2732,43 +2902,49 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>237100</v>
+      </c>
+      <c r="E72" s="3">
         <v>207300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>219100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-425000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-400800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-341200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-269400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-20000</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2802,8 +2978,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2837,8 +3016,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2872,43 +3054,49 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>237100</v>
+      </c>
+      <c r="E76" s="3">
         <v>207400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>219100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-424900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-400800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-325900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-254000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>33200</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2942,83 +3130,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-14900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-144200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-33000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-85700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-80400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-9800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-5900</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3032,8 +3229,9 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3067,8 +3265,11 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3102,8 +3303,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3137,8 +3341,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3172,8 +3379,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3207,8 +3417,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3242,8 +3455,11 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3256,29 +3472,32 @@
       <c r="F89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G89" s="3">
+      <c r="G89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H89" s="3">
         <v>13400</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I89" s="3">
+        <v>17400</v>
+      </c>
+      <c r="J89" s="3">
         <v>-900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-7200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-2900</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3292,43 +3511,47 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>3</v>
+      <c r="D91" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-3000</v>
       </c>
       <c r="G91" s="3">
-        <v>-8500</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
       </c>
       <c r="I91" s="3">
-        <v>-4200</v>
+        <v>0</v>
       </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2900</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3362,8 +3585,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3397,8 +3623,11 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3411,29 +3640,32 @@
       <c r="F94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G94" s="3">
+      <c r="G94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H94" s="3">
         <v>-22000</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I94" s="3">
+        <v>-19900</v>
+      </c>
+      <c r="J94" s="3">
         <v>-5700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-6000</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3447,8 +3679,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3482,8 +3715,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3517,8 +3753,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3552,8 +3791,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3587,8 +3829,11 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3601,29 +3846,32 @@
       <c r="F100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G100" s="3">
+      <c r="G100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H100" s="3">
         <v>29300</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I100" s="3">
+        <v>29900</v>
+      </c>
+      <c r="J100" s="3">
         <v>30400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>4700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>11800</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3636,18 +3884,18 @@
       <c r="F101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G101" s="3">
+      <c r="G101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H101" s="3">
         <v>100</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I101" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J101" s="3">
         <v>-700</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
       <c r="K101" s="3">
         <v>0</v>
       </c>
@@ -3657,8 +3905,11 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3671,25 +3922,28 @@
       <c r="F102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G102" s="3">
+      <c r="G102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H102" s="3">
         <v>20800</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I102" s="3">
+        <v>27300</v>
+      </c>
+      <c r="J102" s="3">
         <v>23100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-5100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>3000</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PRE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PRE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="92">
   <si>
     <t>PRE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,180 +665,193 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>17700</v>
+      </c>
+      <c r="E8" s="3">
         <v>52300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>79700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>51700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>92000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>64700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>74700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>79000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>57500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>27300</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
       <c r="N8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E9" s="3">
         <v>25300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>32900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>30000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>56000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>41000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>48900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>44300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>35500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>18800</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E10" s="3">
         <v>27000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>46800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>21700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>36000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>23700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>25800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>34700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>22000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>8500</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -853,46 +866,50 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E12" s="3">
         <v>3600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>3200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>4800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>3800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>5500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>2200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1100</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -929,37 +946,40 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>30400</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>24100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>89500</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>300</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-100</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -967,8 +987,11 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1005,8 +1028,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1018,84 +1044,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>29700</v>
+      </c>
+      <c r="E17" s="3">
         <v>47700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>85600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>159200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>92600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>95800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>79900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>64200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>46400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>30300</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="E18" s="3">
         <v>4600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-5900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-107500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-31100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-5200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>14800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>11100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-3000</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1110,46 +1143,50 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-5500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-36400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-30700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-56100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-74400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-22200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-7300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2900</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1186,8 +1223,11 @@
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1224,84 +1264,93 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="E23" s="3">
         <v>3300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-11400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-143900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-31300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-87100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-79600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-7400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>3800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-5900</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>1700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>3500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-1400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>2400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1800</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
         <v>0</v>
       </c>
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1338,84 +1387,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="E26" s="3">
         <v>1600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-14900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-144200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-33000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-85700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-80400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-9800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-5900</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-10400</v>
+      </c>
+      <c r="E27" s="3">
         <v>1600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-14900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-144200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-33000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-85700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-80400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-9800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-5900</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1452,8 +1510,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1490,8 +1551,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1528,8 +1592,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1566,84 +1633,93 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E32" s="3">
         <v>1300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>5500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>36400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>30700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>56100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>74400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>22200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>7300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2900</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-10400</v>
+      </c>
+      <c r="E33" s="3">
         <v>1600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-14900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-144200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-33000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-85700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-80400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-9800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-5900</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1680,89 +1756,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-10400</v>
+      </c>
+      <c r="E35" s="3">
         <v>1600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-14900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-144200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-33000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-85700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-80400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-9800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-5900</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1777,8 +1862,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1793,46 +1879,50 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>166300</v>
+      </c>
+      <c r="E41" s="3">
         <v>146700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>144700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>134400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>34200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>35300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>41800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>37600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>9400</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1840,198 +1930,213 @@
         <v>17500</v>
       </c>
       <c r="E42" s="3">
+        <v>17500</v>
+      </c>
+      <c r="F42" s="3">
         <v>25200</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>26700</v>
-      </c>
-      <c r="G42" s="3">
-        <v>9900</v>
       </c>
       <c r="H42" s="3">
         <v>9900</v>
       </c>
       <c r="I42" s="3">
+        <v>9900</v>
+      </c>
+      <c r="J42" s="3">
         <v>10000</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M42" s="3">
-        <v>0</v>
+      <c r="M42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>25800</v>
+      </c>
+      <c r="E43" s="3">
         <v>61600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>61100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>42600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>59700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>47500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>52200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>62500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>48200</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M43" s="3">
-        <v>0</v>
+      <c r="M43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E44" s="3">
         <v>4500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>8200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>11300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>15700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>6800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>5100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>4100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>5700</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M44" s="3">
-        <v>0</v>
+      <c r="M44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E45" s="3">
         <v>11500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>10900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>16100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>7700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>7400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>10000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>5600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2400</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>224100</v>
+      </c>
+      <c r="E46" s="3">
         <v>241800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>250100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>231200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>127300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>106900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>119000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>109800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>65700</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>700</v>
+      </c>
+      <c r="E47" s="3">
         <v>800</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2041,8 +2146,8 @@
       <c r="H47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I47" s="3">
-        <v>0</v>
+      <c r="I47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J47" s="3">
         <v>0</v>
@@ -2053,90 +2158,99 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>3</v>
+      <c r="M47" s="3">
+        <v>0</v>
       </c>
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>11800</v>
+      </c>
+      <c r="E48" s="3">
         <v>13100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>11000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>12900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>13900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>13000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>13400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>9300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5900</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M48" s="3">
-        <v>0</v>
+      <c r="M48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>48300</v>
+      </c>
+      <c r="E49" s="3">
         <v>48600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>25200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>27700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>27800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>29000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>29600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>28800</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M49" s="3">
-        <v>0</v>
+      <c r="M49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2173,8 +2287,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2211,46 +2328,52 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E52" s="3">
         <v>7800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>7700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>9000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>500</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2287,46 +2410,52 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>291000</v>
+      </c>
+      <c r="E54" s="3">
         <v>312100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>269600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>278200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>169600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>148500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>161900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>149000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>100900</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2341,8 +2470,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2357,225 +2487,241 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E57" s="3">
         <v>7300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>9100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>8600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>14200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>10000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>21700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>21500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>19700</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E58" s="3">
         <v>2900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>11600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>11100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>13600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>28500</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M58" s="3">
-        <v>0</v>
+      <c r="M58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>37500</v>
+      </c>
+      <c r="E59" s="3">
         <v>47000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>28900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>27600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>45700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>47100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>29500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>21700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>19000</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>47800</v>
+      </c>
+      <c r="E60" s="3">
         <v>57200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>49500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>47300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>73500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>58700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>52800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>44400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>67100</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E61" s="3">
         <v>3800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>3100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>520300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>490000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>434300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>358100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>600</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E62" s="3">
         <v>7700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>10300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>8900</v>
-      </c>
-      <c r="G62" s="3">
-        <v>700</v>
       </c>
       <c r="H62" s="3">
         <v>700</v>
       </c>
       <c r="I62" s="3">
+        <v>700</v>
+      </c>
+      <c r="J62" s="3">
         <v>800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>500</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2585,8 +2731,11 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2623,8 +2772,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2661,8 +2813,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2699,46 +2854,52 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>62800</v>
+      </c>
+      <c r="E66" s="3">
         <v>75100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>62200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>59200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>594500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>549300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>487800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>403000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>67600</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2753,8 +2914,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2791,8 +2953,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2829,8 +2994,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2867,8 +3035,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2905,46 +3076,52 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>228200</v>
+      </c>
+      <c r="E72" s="3">
         <v>237100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>207300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>219100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-425000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-400800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-341200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-269400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-20000</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2981,8 +3158,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3019,8 +3199,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3057,46 +3240,52 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>228200</v>
+      </c>
+      <c r="E76" s="3">
         <v>237100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>207400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>219100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-424900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-400800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-325900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-254000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>33200</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3133,89 +3322,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-10400</v>
+      </c>
+      <c r="E81" s="3">
         <v>1600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-14900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-144200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-33000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-85700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-80400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-9800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-5900</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3230,8 +3428,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3268,8 +3467,11 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3306,8 +3508,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3344,8 +3549,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3382,8 +3590,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3420,8 +3631,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3458,8 +3672,11 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3475,29 +3692,32 @@
       <c r="G89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H89" s="3">
+      <c r="H89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I89" s="3">
         <v>13400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>17400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-7200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-2900</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3512,8 +3732,9 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3524,7 +3745,7 @@
         <v>-4200</v>
       </c>
       <c r="F91" s="3">
-        <v>-3000</v>
+        <v>0</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
@@ -3539,19 +3760,22 @@
         <v>0</v>
       </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-1800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2900</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3588,8 +3812,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3626,8 +3853,11 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3643,29 +3873,32 @@
       <c r="G94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H94" s="3">
+      <c r="H94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I94" s="3">
         <v>-22000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-19900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-5700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-6000</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3680,8 +3913,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3718,8 +3952,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3756,8 +3993,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3794,8 +4034,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3832,8 +4075,11 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3849,29 +4095,32 @@
       <c r="G100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H100" s="3">
+      <c r="H100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I100" s="3">
         <v>29300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>29900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>30400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>4700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>11800</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3887,18 +4136,18 @@
       <c r="G101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H101" s="3">
+      <c r="H101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I101" s="3">
         <v>100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-700</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
         <v>0</v>
       </c>
@@ -3908,8 +4157,11 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3925,25 +4177,28 @@
       <c r="G102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H102" s="3">
+      <c r="H102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I102" s="3">
         <v>20800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>27300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>23100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-5100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>3000</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PRE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PRE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="92">
   <si>
     <t>PRE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,193 +665,206 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E8" s="3">
         <v>17700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>52300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>79700</v>
       </c>
-      <c r="G8" s="3">
-        <v>51700</v>
-      </c>
       <c r="H8" s="3">
+        <v>4200</v>
+      </c>
+      <c r="I8" s="3">
         <v>92000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>64700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>74700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>79000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>57500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>27300</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
       <c r="O8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E9" s="3">
         <v>9800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>25300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>32900</v>
       </c>
-      <c r="G9" s="3">
-        <v>30000</v>
-      </c>
       <c r="H9" s="3">
+        <v>2800</v>
+      </c>
+      <c r="I9" s="3">
         <v>56000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>41000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>48900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>44300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>35500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>18800</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E10" s="3">
         <v>7900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>27000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>46800</v>
       </c>
-      <c r="G10" s="3">
-        <v>21700</v>
-      </c>
       <c r="H10" s="3">
+        <v>1400</v>
+      </c>
+      <c r="I10" s="3">
         <v>36000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>23700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>25800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>34700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>22000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>8500</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -867,49 +880,53 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E12" s="3">
         <v>3500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>3600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>3200</v>
       </c>
-      <c r="G12" s="3">
-        <v>4800</v>
-      </c>
       <c r="H12" s="3">
+        <v>7000</v>
+      </c>
+      <c r="I12" s="3">
         <v>3800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>5500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>2200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1100</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -949,8 +966,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -958,31 +978,31 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>30400</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>24100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>89500</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-100</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -990,8 +1010,11 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1031,8 +1054,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1045,90 +1071,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>17900</v>
+      </c>
+      <c r="E17" s="3">
         <v>29700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>47700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>85600</v>
       </c>
-      <c r="G17" s="3">
-        <v>159200</v>
-      </c>
       <c r="H17" s="3">
+        <v>116500</v>
+      </c>
+      <c r="I17" s="3">
         <v>92600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>95800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>79900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>64200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>46400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>30300</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-12000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>4600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-5900</v>
       </c>
-      <c r="G18" s="3">
-        <v>-107500</v>
-      </c>
       <c r="H18" s="3">
+        <v>-112300</v>
+      </c>
+      <c r="I18" s="3">
         <v>-600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-31100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-5200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>14800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>11100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-3000</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1144,49 +1177,53 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E20" s="3">
         <v>1100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-5500</v>
       </c>
-      <c r="G20" s="3">
-        <v>-36400</v>
-      </c>
       <c r="H20" s="3">
+        <v>-36500</v>
+      </c>
+      <c r="I20" s="3">
         <v>-30700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-56100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-74400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-22200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-7300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-2900</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1226,8 +1263,11 @@
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1267,90 +1307,99 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-15800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-11000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>3300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-11400</v>
       </c>
-      <c r="G23" s="3">
-        <v>-143900</v>
-      </c>
       <c r="H23" s="3">
+        <v>-148800</v>
+      </c>
+      <c r="I23" s="3">
         <v>-31300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-87100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-79600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-7400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>3800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-5900</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>1700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>3500</v>
       </c>
-      <c r="G24" s="3">
-        <v>300</v>
-      </c>
       <c r="H24" s="3">
+        <v>200</v>
+      </c>
+      <c r="I24" s="3">
         <v>1700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-1400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1800</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
       <c r="N24" s="3">
         <v>0</v>
       </c>
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1390,90 +1439,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-15500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-11000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-14900</v>
       </c>
-      <c r="G26" s="3">
-        <v>-144200</v>
-      </c>
       <c r="H26" s="3">
+        <v>-149000</v>
+      </c>
+      <c r="I26" s="3">
         <v>-33000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-85700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-80400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-9800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-5900</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-15100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-10400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-14900</v>
       </c>
-      <c r="G27" s="3">
-        <v>-144200</v>
-      </c>
       <c r="H27" s="3">
+        <v>-149000</v>
+      </c>
+      <c r="I27" s="3">
         <v>-33000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-85700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-80400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-9800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-5900</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1513,31 +1571,34 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
-      </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
+        <v>-6700</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
+        <v>4800</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -1554,8 +1615,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1595,8 +1659,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1636,90 +1703,99 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>5500</v>
       </c>
-      <c r="G32" s="3">
-        <v>36400</v>
-      </c>
       <c r="H32" s="3">
+        <v>36500</v>
+      </c>
+      <c r="I32" s="3">
         <v>30700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>56100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>74400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>22200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>7300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>2900</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-21800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-10400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-14900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-144200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-33000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-85700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-80400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-9800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-5900</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1759,95 +1835,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-21800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-10400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-14900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-144200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-33000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-85700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-80400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-9800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-5900</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1863,8 +1948,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1880,266 +1966,285 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>177200</v>
+      </c>
+      <c r="E41" s="3">
         <v>166300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>146700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>144700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>134400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>34200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>35300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>41800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>37600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>9400</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>17500</v>
+        <v>13600</v>
       </c>
       <c r="E42" s="3">
         <v>17500</v>
       </c>
       <c r="F42" s="3">
+        <v>17500</v>
+      </c>
+      <c r="G42" s="3">
         <v>25200</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>26700</v>
-      </c>
-      <c r="H42" s="3">
-        <v>9900</v>
       </c>
       <c r="I42" s="3">
         <v>9900</v>
       </c>
       <c r="J42" s="3">
+        <v>9900</v>
+      </c>
+      <c r="K42" s="3">
         <v>10000</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N42" s="3">
-        <v>0</v>
+      <c r="N42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E43" s="3">
         <v>25800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>61600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>61100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>42600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>59700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>47500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>52200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>62500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>48200</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N43" s="3">
-        <v>0</v>
+      <c r="N43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E44" s="3">
         <v>3400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>4500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>8200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>11300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>15700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>6800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>5100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>5700</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N44" s="3">
-        <v>0</v>
+      <c r="N44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>14200</v>
+      </c>
+      <c r="E45" s="3">
         <v>11000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>11500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>10900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>16100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>7700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>7400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>10000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>5600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2400</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>214500</v>
+      </c>
+      <c r="E46" s="3">
         <v>224100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>241800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>250100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>231200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>127300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>106900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>119000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>109800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>65700</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>600</v>
+      </c>
+      <c r="E47" s="3">
         <v>700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>800</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2149,8 +2254,8 @@
       <c r="I47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J47" s="3">
-        <v>0</v>
+      <c r="J47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -2161,96 +2266,105 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>3</v>
+      <c r="N47" s="3">
+        <v>0</v>
       </c>
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E48" s="3">
         <v>11800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>13100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>11000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>12900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>13900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>13000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>13400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>9300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5900</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N48" s="3">
-        <v>0</v>
+      <c r="N48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>47900</v>
+      </c>
+      <c r="E49" s="3">
         <v>48300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>48600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>25200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>27700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>27800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>29000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>29600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>28800</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N49" s="3">
-        <v>0</v>
+      <c r="N49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2290,8 +2404,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2331,49 +2448,55 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E52" s="3">
         <v>6200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>7800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>7700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>9000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>500</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2413,49 +2536,55 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>280800</v>
+      </c>
+      <c r="E54" s="3">
         <v>291000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>312100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>269600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>278200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>169600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>148500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>161900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>149000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>100900</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2471,8 +2600,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2488,49 +2618,53 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E57" s="3">
         <v>7500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>7300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>9100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>8600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>14200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>10000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>21700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>21500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>19700</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2538,193 +2672,205 @@
         <v>2800</v>
       </c>
       <c r="E58" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F58" s="3">
         <v>2900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>11600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>11100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>13600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>28500</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N58" s="3">
-        <v>0</v>
+      <c r="N58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>45000</v>
+      </c>
+      <c r="E59" s="3">
         <v>37500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>47000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>28900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>27600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>45700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>47100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>29500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>21700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>19000</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>52000</v>
+      </c>
+      <c r="E60" s="3">
         <v>47800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>57200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>49500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>47300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>73500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>58700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>52800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>44400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>67100</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E61" s="3">
         <v>3600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>3100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>520300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>490000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>434300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>358100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>600</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E62" s="3">
         <v>6100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>7700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>10300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>8900</v>
-      </c>
-      <c r="H62" s="3">
-        <v>700</v>
       </c>
       <c r="I62" s="3">
         <v>700</v>
       </c>
       <c r="J62" s="3">
+        <v>700</v>
+      </c>
+      <c r="K62" s="3">
         <v>800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>500</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2734,8 +2880,11 @@
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2775,8 +2924,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2816,8 +2968,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2857,49 +3012,55 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>65500</v>
+      </c>
+      <c r="E66" s="3">
         <v>62800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>75100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>62200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>59200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>594500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>549300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>487800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>403000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>67600</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2915,8 +3076,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2956,8 +3118,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2997,8 +3162,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3038,8 +3206,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3079,49 +3250,55 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>215300</v>
+      </c>
+      <c r="E72" s="3">
         <v>228200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>237100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>207300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>219100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-425000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-400800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-341200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-269400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-20000</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3161,8 +3338,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3202,8 +3382,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3243,49 +3426,55 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>215300</v>
+      </c>
+      <c r="E76" s="3">
         <v>228200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>237100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>207400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>219100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-424900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-400800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-325900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-254000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>33200</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3325,95 +3514,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-21800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-10400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-14900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-144200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-33000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-85700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-80400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-9800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-5900</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3429,8 +3627,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3470,8 +3669,11 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3511,8 +3713,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3552,8 +3757,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3593,8 +3801,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3634,8 +3845,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3675,8 +3889,11 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3695,29 +3912,32 @@
       <c r="H89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I89" s="3">
+      <c r="I89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J89" s="3">
         <v>13400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>17400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-7200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-2900</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3733,8 +3953,9 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3742,7 +3963,7 @@
         <v>-1500</v>
       </c>
       <c r="E91" s="3">
-        <v>-4200</v>
+        <v>0</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
@@ -3763,19 +3984,22 @@
         <v>0</v>
       </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-1800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2900</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3815,8 +4039,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3856,8 +4083,11 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3876,29 +4106,32 @@
       <c r="H94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I94" s="3">
+      <c r="I94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J94" s="3">
         <v>-22000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-19900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-5700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-6000</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3914,8 +4147,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3955,8 +4189,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3996,8 +4233,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4037,8 +4277,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4078,8 +4321,11 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4098,29 +4344,32 @@
       <c r="H100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I100" s="3">
+      <c r="I100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J100" s="3">
         <v>29300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>29900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>30400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>4700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>11800</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4139,18 +4388,18 @@
       <c r="H101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I101" s="3">
+      <c r="I101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J101" s="3">
         <v>100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-700</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
         <v>0</v>
       </c>
@@ -4160,8 +4409,11 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4180,25 +4432,28 @@
       <c r="H102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I102" s="3">
+      <c r="I102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J102" s="3">
         <v>20800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>27300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>23100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-5100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>3000</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
